--- a/biology/Médecine/Jakob_Bartsch/Jakob_Bartsch.xlsx
+++ b/biology/Médecine/Jakob_Bartsch/Jakob_Bartsch.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Jakob Bartsch (1600-1633) est un mathématicien, astronome et médecin allemand.
 Il étudie la médecine à Padoue et Strasbourg, où il soutient en 1630 son doctorat, intitulé Theses Hippocraticae ex IV Libris Hippocratis de morbis. 
@@ -514,9 +526,11 @@
           <t>Liste partielle des publications</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Jacobi Bartschii Lauba-Lusati Philiatri, Planisphaerium stellatum seu vice-globus caelestis in plano delineatus... Cui adjectae sunt Ephemerides. V. Planetarum ab anno M DC LXII [1662] ad M DC LXXXVI [1686]... Norimbergae, 1660.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Jacobi Bartschii Lauba-Lusati Philiatri, Planisphaerium stellatum seu vice-globus caelestis in plano delineatus... Cui adjectae sunt Ephemerides. V. Planetarum ab anno M DC LXII  ad M DC LXXXVI ... Norimbergae, 1660.
 Usus astronomicus indicis aspectuum veterum et praecip. novorum, compendiose sine calculo simul omnium inveniendorum ... a Jacobo Bartschio. Norimbergae, 1661.</t>
         </is>
       </c>
